--- a/uploads/Planilha2.xlsx
+++ b/uploads/Planilha2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NatanaelSilva\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E328F85-6E3B-4567-848C-EC8AF1EB30D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CB2A82-97DA-45F2-92C6-B32C41A2FA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="20460" windowHeight="10770" xr2:uid="{8A67068E-3D0E-4743-B7BE-049939D6EDAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A67068E-3D0E-4743-B7BE-049939D6EDAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Nome</t>
-  </si>
-  <si>
     <t>Sobrenome</t>
   </si>
   <si>
-    <t>Natanael</t>
+    <t>Silva</t>
   </si>
   <si>
-    <t>Silva</t>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>Teste</t>
   </si>
 </sst>
 </file>
@@ -419,30 +419,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBABFA92-01FB-49B5-A4F4-4C2B6D9B5DF0}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2">
+        <v>48141278800</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10101</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
